--- a/P7 Rayo Laser/GRAFICA.xlsx
+++ b/P7 Rayo Laser/GRAFICA.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UnADM\Documents\ESCUELA\ESCOM\INSTRUMENTACION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6705CA-B7D0-4C81-8EEB-3DD2B6C247E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A93A95D-B025-4363-9661-81852496E501}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" activeTab="1" xr2:uid="{C8A19538-B1F6-4E27-93B8-5BF884C72178}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10170" windowHeight="7110" activeTab="1" xr2:uid="{C8A19538-B1F6-4E27-93B8-5BF884C72178}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +32,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Voltaje</t>
   </si>
   <si>
     <t>Distancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elegir sección lineal </t>
+  </si>
+  <si>
+    <t>Sacar su promedio</t>
+  </si>
+  <si>
+    <t>La pendiente de la recta es la resolución</t>
   </si>
 </sst>
 </file>
@@ -879,6 +888,546 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja2!$S$5:$S$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja2!$T$5:$T$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18EE-4A3D-AC5E-6A0B713B6455}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297542720"/>
+        <c:axId val="297543704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297542720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297543704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297543704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297542720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -919,7 +1468,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1468,6 +2573,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6268A74C-0F3C-4CB9-93B3-D007016C4E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2114,15 +3255,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A298035-B671-4EFC-A0AB-9030CC351210}">
-  <dimension ref="B4:C78"/>
+  <dimension ref="B4:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="P18" workbookViewId="0">
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2130,319 +3271,562 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="6">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6">
+        <v>47</v>
+      </c>
+      <c r="T5" s="6">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6">
+        <v>48</v>
+      </c>
+      <c r="T6" s="6">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>8</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="6">
+        <v>49</v>
+      </c>
+      <c r="T7" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>13</v>
       </c>
       <c r="C8" s="6">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S8" s="6">
+        <v>50</v>
+      </c>
+      <c r="T8" s="6">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S9" s="6">
+        <v>51</v>
+      </c>
+      <c r="T9" s="6">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>23</v>
       </c>
       <c r="C10" s="6">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S10" s="6">
+        <v>52</v>
+      </c>
+      <c r="T10" s="6">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>28</v>
       </c>
       <c r="C11" s="6">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S11" s="6">
+        <v>53</v>
+      </c>
+      <c r="T11" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>33</v>
       </c>
       <c r="C12" s="6">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S12" s="6">
+        <v>54</v>
+      </c>
+      <c r="T12" s="6">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>38</v>
       </c>
       <c r="C13" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S13" s="6">
+        <v>55</v>
+      </c>
+      <c r="T13" s="6">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>42</v>
       </c>
       <c r="C14" s="6">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S14" s="6">
+        <v>56</v>
+      </c>
+      <c r="T14" s="6">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>43</v>
       </c>
       <c r="C15" s="6">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S15" s="6">
+        <v>57</v>
+      </c>
+      <c r="T15" s="6">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>44</v>
       </c>
       <c r="C16" s="6">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S16" s="6">
+        <v>58</v>
+      </c>
+      <c r="T16" s="6">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>45</v>
       </c>
       <c r="C17" s="6">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S17" s="6">
+        <v>59</v>
+      </c>
+      <c r="T17" s="6">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>46</v>
       </c>
       <c r="C18" s="6">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S18" s="6">
+        <v>60</v>
+      </c>
+      <c r="T18" s="6">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>47</v>
       </c>
       <c r="C19" s="6">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S19" s="6">
+        <v>61</v>
+      </c>
+      <c r="T19" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>48</v>
       </c>
       <c r="C20" s="6">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S20" s="6">
+        <v>62</v>
+      </c>
+      <c r="T20" s="6">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>49</v>
       </c>
       <c r="C21" s="6">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S21" s="6">
+        <v>63</v>
+      </c>
+      <c r="T21" s="6">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>50</v>
       </c>
       <c r="C22" s="6">
         <v>3.39</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S22" s="6">
+        <v>64</v>
+      </c>
+      <c r="T22" s="6">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>51</v>
       </c>
       <c r="C23" s="6">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S23" s="6">
+        <v>65</v>
+      </c>
+      <c r="T23" s="6">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>52</v>
       </c>
       <c r="C24" s="6">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S24" s="6">
+        <v>66</v>
+      </c>
+      <c r="T24" s="6">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>53</v>
       </c>
       <c r="C25" s="6">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S25" s="6">
+        <v>67</v>
+      </c>
+      <c r="T25" s="6">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>54</v>
       </c>
       <c r="C26" s="6">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S26" s="6">
+        <v>68</v>
+      </c>
+      <c r="T26" s="6">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>55</v>
       </c>
       <c r="C27" s="6">
         <v>3.48</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S27" s="6">
+        <v>69</v>
+      </c>
+      <c r="T27" s="6">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>56</v>
       </c>
       <c r="C28" s="6">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S28" s="6">
+        <v>70</v>
+      </c>
+      <c r="T28" s="6">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>57</v>
       </c>
       <c r="C29" s="6">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S29" s="6">
+        <v>71</v>
+      </c>
+      <c r="T29" s="6">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>58</v>
       </c>
       <c r="C30" s="6">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S30" s="6">
+        <v>72</v>
+      </c>
+      <c r="T30" s="6">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>59</v>
       </c>
       <c r="C31" s="6">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S31" s="6">
+        <v>73</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>60</v>
       </c>
       <c r="C32" s="6">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S32" s="6">
+        <v>74</v>
+      </c>
+      <c r="T32" s="6">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>61</v>
       </c>
       <c r="C33" s="6">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S33" s="6">
+        <v>75</v>
+      </c>
+      <c r="T33" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>62</v>
       </c>
       <c r="C34" s="6">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S34" s="6">
+        <v>76</v>
+      </c>
+      <c r="T34" s="6">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>63</v>
       </c>
       <c r="C35" s="6">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S35" s="6">
+        <v>77</v>
+      </c>
+      <c r="T35" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>64</v>
       </c>
       <c r="C36" s="6">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S36" s="6">
+        <v>78</v>
+      </c>
+      <c r="T36" s="6">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>65</v>
       </c>
       <c r="C37" s="6">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S37" s="6">
+        <v>79</v>
+      </c>
+      <c r="T37" s="6">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>66</v>
       </c>
       <c r="C38" s="6">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S38" s="6">
+        <v>80</v>
+      </c>
+      <c r="T38" s="6">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>67</v>
       </c>
       <c r="C39" s="6">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S39" s="6">
+        <v>81</v>
+      </c>
+      <c r="T39" s="6">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>68</v>
       </c>
       <c r="C40" s="6">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S40" s="6">
+        <v>82</v>
+      </c>
+      <c r="T40" s="6">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>69</v>
       </c>
       <c r="C41" s="6">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S41" s="6">
+        <v>83</v>
+      </c>
+      <c r="T41" s="6">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>70</v>
       </c>
       <c r="C42" s="6">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S42" s="6">
+        <v>84</v>
+      </c>
+      <c r="T42" s="6">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>71</v>
       </c>
       <c r="C43" s="6">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="S43" s="6">
+        <v>85</v>
+      </c>
+      <c r="T43" s="6">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>72</v>
       </c>
@@ -2450,7 +3834,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>73</v>
       </c>
@@ -2458,7 +3842,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <v>74</v>
       </c>
@@ -2466,7 +3850,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <v>75</v>
       </c>
@@ -2474,7 +3858,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <v>76</v>
       </c>
